--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,6 +20,9 @@
     <sheet name="BM.05" sheetId="7" r:id="rId6"/>
     <sheet name="BM.06" sheetId="9" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">BM.07!$A$2:$M$17</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -334,9 +337,6 @@
     <t>Ngày: 13  Tháng 01  Năm 2021</t>
   </si>
   <si>
-    <t>Hà Văn Thể</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Hoa</t>
   </si>
   <si>
@@ -349,19 +349,22 @@
     <t>Lý do xuất kho</t>
   </si>
   <si>
-    <t>VT_Module_SIM868</t>
-  </si>
-  <si>
-    <t>VT_IC_STM32F303RCT6</t>
-  </si>
-  <si>
-    <t>Thay thế cho thiết bị bảo hành, ĐL Taris SG</t>
-  </si>
-  <si>
     <t>Chủng Loại/Mã</t>
   </si>
   <si>
-    <t xml:space="preserve">                            PHIẾU XUẤT KHO</t>
+    <t>Thay thế linh kiện cho thiết bị dự phòng lắp đặt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            </t>
+  </si>
+  <si>
+    <t>PHIẾU XUẤT KHO</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>VT_Module_GPS L76</t>
   </si>
 </sst>
 </file>
@@ -369,8 +372,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -934,9 +937,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1028,7 +1031,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,13 +1094,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,22 +1142,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1154,19 +1166,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1208,8 +1211,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1232,28 +1259,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1277,26 +1301,17 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1304,37 +1319,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1362,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1414,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,67 +1448,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>99806</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="57150" y="314325"/>
-          <a:ext cx="1638300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
+      <xdr:colOff>455545</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1533,7 +1466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1546,8 +1479,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9524" y="257176"/>
-          <a:ext cx="2428875" cy="561974"/>
+          <a:off x="99806" y="241853"/>
+          <a:ext cx="2128217" cy="563631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,7 +1512,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="non bao hiem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1565,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1614,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1663,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1712,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1756,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1830,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,57 +2171,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="69" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="69" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="69" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -2308,29 +2241,29 @@
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67" t="s">
+      <c r="H8" s="70"/>
+      <c r="I8" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67" t="s">
+      <c r="J8" s="70"/>
+      <c r="K8" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="25" t="s">
         <v>5</v>
       </c>
@@ -2339,17 +2272,17 @@
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,17 +2290,17 @@
         <f>+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2375,17 +2308,17 @@
         <f t="shared" ref="A11:A20" si="0">+A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,17 +2326,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2411,17 +2344,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,17 +2362,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2447,17 +2380,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2465,17 +2398,17 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2483,17 +2416,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2501,17 +2434,17 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2519,17 +2452,17 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2537,61 +2470,61 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="80" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="80" t="s">
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="77" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="77" t="s">
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -2679,6 +2612,54 @@
     <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A22:E22"/>
@@ -2695,54 +2676,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.3" right="0.21" top="0.26" bottom="0.24" header="0.18" footer="0.17"/>
@@ -2754,10 +2687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M27"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2765,11 +2698,11 @@
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
@@ -2779,57 +2712,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="69" t="s">
+      <c r="A2" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="69" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="69" t="s">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -2845,128 +2780,119 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67" t="s">
+      <c r="G8" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67" t="s">
+      <c r="J8" s="70"/>
+      <c r="K8" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="67"/>
-      <c r="M8" s="64" t="s">
+      <c r="L8" s="70"/>
+      <c r="M8" s="61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62">
         <v>1</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="62">
+        <v>1</v>
+      </c>
+      <c r="G9" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="60">
-        <v>3</v>
-      </c>
-      <c r="G9" s="142" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="143"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="63"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62">
-        <f>+A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="60">
-        <v>2</v>
-      </c>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="63"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+      <c r="H9" s="83"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="80" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="80" t="s">
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="77" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="77" t="s">
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -2998,57 +2924,43 @@
       <c r="L15" s="5"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="77" t="s">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="77" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-    </row>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3057,17 +2969,23 @@
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G9:H10"/>
+  <mergeCells count="22">
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A2:K4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3075,18 +2993,9 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3113,95 +3022,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="69" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="69"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="69" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="69"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="69" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3210,8 +3119,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3220,8 +3129,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3230,8 +3139,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3240,8 +3149,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3250,8 +3159,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3260,8 +3169,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3270,8 +3179,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3280,8 +3189,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3307,22 +3216,22 @@
       <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89" t="s">
+      <c r="D18" s="84"/>
+      <c r="E18" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89" t="s">
+      <c r="F18" s="84"/>
+      <c r="G18" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="89"/>
+      <c r="H18" s="84"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3357,95 +3266,95 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="86" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="69" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="69"/>
+      <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="69" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="72"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="69" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="69"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66" t="s">
+      <c r="G28" s="63"/>
+      <c r="H28" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3454,8 +3363,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3464,8 +3373,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3474,8 +3383,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3484,8 +3393,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3494,8 +3403,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3504,8 +3413,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3514,8 +3423,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="87"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3524,8 +3433,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3551,22 +3460,22 @@
       <c r="H39" s="85"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89" t="s">
+      <c r="D40" s="84"/>
+      <c r="E40" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89" t="s">
+      <c r="F40" s="84"/>
+      <c r="G40" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="89"/>
+      <c r="H40" s="84"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3580,6 +3489,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
@@ -3596,48 +3547,6 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.23" top="0.4" bottom="0.33" header="0.27" footer="0.23"/>
@@ -3667,8 +3576,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="93" t="s">
         <v>18</v>
       </c>
@@ -3679,8 +3588,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="96"/>
       <c r="D3" s="97"/>
       <c r="E3" s="98"/>
@@ -3689,8 +3598,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="99"/>
       <c r="D4" s="100"/>
       <c r="E4" s="101"/>
@@ -4011,78 +3920,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108" t="s">
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="118"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="28"/>
@@ -4174,58 +4083,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103" t="s">
+      <c r="G21" s="107"/>
+      <c r="H21" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="103" t="s">
+      <c r="I21" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="103" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="103"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="107"/>
       <c r="F22" s="38" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="112"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="104"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4270,12 +4179,12 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="90" t="s">
@@ -4343,74 +4252,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4418,6 +4327,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4434,22 +4359,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4482,62 +4391,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="108" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="110"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="108" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="110"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="108" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="110"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4551,12 +4460,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
@@ -4586,10 +4495,10 @@
       <c r="I7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="128"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4603,8 +4512,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="128"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4618,8 +4527,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4633,8 +4542,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="123"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4648,8 +4557,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="123"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="130"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4663,8 +4572,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="123"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4678,14 +4587,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="130"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4693,44 +4602,35 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="132"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="126"/>
+      <c r="G16" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119" t="s">
+      <c r="H16" s="126"/>
+      <c r="I16" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4742,6 +4642,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4781,48 +4690,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="110"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="108" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="110"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="108" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4868,11 +4777,11 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
@@ -4882,174 +4791,174 @@
       <c r="G8" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="138"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="138"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="138"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="138"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="138"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="138"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="138"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="138"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="138"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="138"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="134"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5064,42 +4973,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81" t="s">
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5109,9 +5018,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5121,9 +5030,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5133,9 +5042,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -5143,6 +5052,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -5150,38 +5091,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -331,9 +331,6 @@
     <t>Số: PXK 01</t>
   </si>
   <si>
-    <t>Ngày: 13  Tháng 01  Năm 2021</t>
-  </si>
-  <si>
     <t>Hà Văn Thể</t>
   </si>
   <si>
@@ -349,19 +346,19 @@
     <t>Lý do xuất kho</t>
   </si>
   <si>
-    <t>VT_Module_SIM868</t>
-  </si>
-  <si>
-    <t>VT_IC_STM32F303RCT6</t>
-  </si>
-  <si>
-    <t>Thay thế cho thiết bị bảo hành, ĐL Taris SG</t>
-  </si>
-  <si>
     <t>Chủng Loại/Mã</t>
   </si>
   <si>
     <t xml:space="preserve">                            PHIẾU XUẤT KHO</t>
+  </si>
+  <si>
+    <t>TP_ACT-01</t>
+  </si>
+  <si>
+    <t>Đổi mới cho ĐL  Kim Long</t>
+  </si>
+  <si>
+    <t>Ngày: 18  Tháng 01  Năm 2021</t>
   </si>
 </sst>
 </file>
@@ -936,7 +933,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1100,6 +1097,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,22 +1145,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1154,19 +1169,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1208,8 +1214,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1232,28 +1262,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1277,64 +1304,22 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1362,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1414,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1463,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1564,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="non bao hiem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1617,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1666,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1715,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1764,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1808,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1882,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,57 +2223,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="69" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="69" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="69" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -2308,29 +2293,29 @@
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67" t="s">
+      <c r="H8" s="73"/>
+      <c r="I8" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67" t="s">
+      <c r="J8" s="73"/>
+      <c r="K8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="25" t="s">
         <v>5</v>
       </c>
@@ -2552,46 +2537,46 @@
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="80" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="80" t="s">
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="77" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="77" t="s">
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -2679,6 +2664,54 @@
     <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A22:E22"/>
@@ -2695,54 +2728,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.3" right="0.21" top="0.26" bottom="0.24" header="0.18" footer="0.17"/>
@@ -2754,10 +2739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M27"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2779,57 +2764,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="69" t="s">
+      <c r="A2" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="69" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="69" t="s">
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -2841,7 +2826,7 @@
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2849,29 +2834,29 @@
       <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67" t="s">
+      <c r="G8" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67" t="s">
+      <c r="J8" s="73"/>
+      <c r="K8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="64" t="s">
         <v>5</v>
       </c>
@@ -2880,93 +2865,84 @@
       <c r="A9" s="62">
         <v>1</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="60">
-        <v>3</v>
-      </c>
-      <c r="G9" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="143"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
       <c r="M9" s="63"/>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62">
-        <f>+A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="60">
-        <v>2</v>
-      </c>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="63"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="80" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="80" t="s">
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="77" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="77" t="s">
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -2998,57 +2974,43 @@
       <c r="L15" s="5"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="77" t="s">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="77" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-    </row>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3057,13 +3019,17 @@
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G9:H10"/>
+  <mergeCells count="21">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
@@ -3075,18 +3041,10 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.94488188976377963" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="70" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3113,54 +3071,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="69" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="69"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="69" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="69"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="69" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
@@ -3200,8 +3158,8 @@
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3210,8 +3168,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3220,8 +3178,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3230,8 +3188,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3240,8 +3198,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3250,8 +3208,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3260,8 +3218,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3270,8 +3228,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3280,8 +3238,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3289,40 +3247,40 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85" t="s">
+      <c r="D17" s="88"/>
+      <c r="E17" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85" t="s">
+      <c r="F17" s="88"/>
+      <c r="G17" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="85"/>
+      <c r="H17" s="88"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89" t="s">
+      <c r="D18" s="87"/>
+      <c r="E18" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89" t="s">
+      <c r="F18" s="87"/>
+      <c r="G18" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="89"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3357,54 +3315,54 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="86" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="69" t="s">
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="69"/>
+      <c r="H24" s="75"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="69" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="69" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="69"/>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="66" t="s">
@@ -3444,8 +3402,8 @@
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3454,8 +3412,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3464,8 +3422,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3474,8 +3432,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3484,8 +3442,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3494,8 +3452,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3504,8 +3462,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3514,8 +3472,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3524,8 +3482,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3533,40 +3491,40 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85" t="s">
+      <c r="B39" s="88"/>
+      <c r="C39" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85" t="s">
+      <c r="D39" s="88"/>
+      <c r="E39" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85" t="s">
+      <c r="F39" s="88"/>
+      <c r="G39" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="85"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89" t="s">
+      <c r="B40" s="87"/>
+      <c r="C40" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89" t="s">
+      <c r="D40" s="87"/>
+      <c r="E40" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89" t="s">
+      <c r="F40" s="87"/>
+      <c r="G40" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="89"/>
+      <c r="H40" s="87"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3580,6 +3538,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
@@ -3596,48 +3596,6 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.23" top="0.4" bottom="0.33" header="0.27" footer="0.23"/>
@@ -3667,42 +3625,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="93" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="33" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="95"/>
       <c r="F5" s="23" t="s">
         <v>51</v>
       </c>
@@ -3941,32 +3899,32 @@
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="102" t="s">
+      <c r="E37" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="102"/>
+      <c r="F37" s="105"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="90"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="90"/>
+      <c r="F38" s="93"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="91"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="91"/>
+      <c r="F39" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4011,78 +3969,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108" t="s">
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="28"/>
@@ -4174,58 +4132,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103" t="s">
+      <c r="G21" s="110"/>
+      <c r="H21" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="103" t="s">
+      <c r="I21" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="106" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="103"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="38" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="112"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="107"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4270,45 +4228,45 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="H27" s="90" t="s">
+      <c r="F27" s="93"/>
+      <c r="H27" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91" t="s">
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="I28" s="91" t="s">
+      <c r="F28" s="94"/>
+      <c r="I28" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="91"/>
+      <c r="J28" s="94"/>
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4343,74 +4301,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4418,6 +4376,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4434,22 +4408,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4482,62 +4440,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="108" t="s">
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="110"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="108" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="110"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="108" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="110"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4551,12 +4509,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
@@ -4586,10 +4544,10 @@
       <c r="I7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="128"/>
+      <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4603,8 +4561,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4618,8 +4576,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4633,8 +4591,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="123"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4648,8 +4606,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="123"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="133"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4663,8 +4621,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="123"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="133"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4678,14 +4636,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="133"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4693,44 +4651,35 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="135"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="129"/>
+      <c r="G16" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119" t="s">
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4742,6 +4691,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4781,48 +4739,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="110"/>
+      <c r="J2" s="121"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="108" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="110"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="108" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="121"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4868,11 +4826,11 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
@@ -4882,11 +4840,11 @@
       <c r="G8" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
@@ -4900,7 +4858,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
-      <c r="J9" s="138"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
@@ -4915,7 +4873,7 @@
       <c r="G10" s="53"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
-      <c r="J10" s="138"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
@@ -4930,7 +4888,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
-      <c r="J11" s="138"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
@@ -4945,7 +4903,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
-      <c r="J12" s="138"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
@@ -4960,7 +4918,7 @@
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
-      <c r="J13" s="138"/>
+      <c r="J13" s="137"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
@@ -4975,7 +4933,7 @@
       <c r="G14" s="53"/>
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
-      <c r="J14" s="138"/>
+      <c r="J14" s="137"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
@@ -4990,7 +4948,7 @@
       <c r="G15" s="53"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
-      <c r="J15" s="138"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
@@ -5005,7 +4963,7 @@
       <c r="G16" s="53"/>
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
-      <c r="J16" s="138"/>
+      <c r="J16" s="137"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
@@ -5020,7 +4978,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
-      <c r="J17" s="138"/>
+      <c r="J17" s="137"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
@@ -5035,21 +4993,21 @@
       <c r="G18" s="53"/>
       <c r="H18" s="66"/>
       <c r="I18" s="66"/>
-      <c r="J18" s="138"/>
+      <c r="J18" s="137"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5064,42 +5022,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81" t="s">
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5109,9 +5067,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5121,9 +5079,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5133,9 +5091,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -5143,6 +5101,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -5150,38 +5140,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15" yWindow="390" windowWidth="23985" windowHeight="12900" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="BM.05" sheetId="7" r:id="rId6"/>
     <sheet name="BM.06" sheetId="9" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">BM.07!$A$2:$M$17</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -53,9 +50,6 @@
     <t>Số Lượng/ Trọng lượng</t>
   </si>
   <si>
-    <t>Lý do nhập lại kho</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
   </si>
   <si>
     <t>(Ký, ghi rõ họ tên)</t>
-  </si>
-  <si>
-    <t>Xác nhận của kỹ thuật/ QA</t>
   </si>
   <si>
     <t>PHIẾU YÊU CẦU XUẤT VẬT TƯ</t>
@@ -310,7 +301,7 @@
     <t>PHIẾU NHẬP KHO</t>
   </si>
   <si>
-    <t>Số: PNK……………….</t>
+    <t>PHIẾU XUẤT KHO</t>
   </si>
   <si>
     <t>Người duyệt</t>
@@ -325,16 +316,28 @@
     <t>Phê duyệt của Ban  giám đốc</t>
   </si>
   <si>
-    <t>Phương án xử lý</t>
-  </si>
-  <si>
-    <t>Bộ phận/ Phòng ban: Bảo hành/Phòng Kỹ Thuật</t>
-  </si>
-  <si>
-    <t>Số: PXK 01</t>
-  </si>
-  <si>
-    <t>Ngày: 13  Tháng 01  Năm 2021</t>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>Lý do nhập kho</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng:…....................................................</t>
+  </si>
+  <si>
+    <t>Họ và tên người đề nghị: Hà Văn Thể</t>
+  </si>
+  <si>
+    <t>Bộ phận/ Phòng ban: Phòng sản xuất - Bảo hành</t>
+  </si>
+  <si>
+    <t>Số: PXK : 03</t>
+  </si>
+  <si>
+    <t>Hà Văn Thể</t>
   </si>
   <si>
     <t>Nguyễn Thị Hoa</t>
@@ -343,28 +346,37 @@
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
+    <t>VT_Vỏ hộp_node_Temp</t>
+  </si>
+  <si>
     <t>Chiếc</t>
   </si>
   <si>
     <t>Lý do xuất kho</t>
   </si>
   <si>
-    <t>Chủng Loại/Mã</t>
-  </si>
-  <si>
-    <t>Thay thế linh kiện cho thiết bị dự phòng lắp đặt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            </t>
-  </si>
-  <si>
-    <t>PHIẾU XUẤT KHO</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Tùng</t>
-  </si>
-  <si>
-    <t>VT_Module_GPS L76</t>
+    <t>Sản xuất thiết bị ACT-01</t>
+  </si>
+  <si>
+    <t>Ngày: 08 Tháng 12 Năm 2020</t>
+  </si>
+  <si>
+    <t>Bộ phận/ Phòng ban: Sản xuất - Bảo hành</t>
+  </si>
+  <si>
+    <t>Số: PNK 02</t>
+  </si>
+  <si>
+    <t>Ngày: 20 Tháng 01 Năm 2021</t>
+  </si>
+  <si>
+    <t>VT_Fuse_60V_550mA</t>
+  </si>
+  <si>
+    <t>Nhập kho sản xuất thiết bị TG102LE-4G</t>
+  </si>
+  <si>
+    <t>Linh kiện nhập lại kho từ lô sx  ACT-01</t>
   </si>
 </sst>
 </file>
@@ -372,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -464,6 +476,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -937,9 +956,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,7 +1050,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,25 +1110,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,34 +1150,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1211,6 +1228,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1221,9 +1262,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,26 +1276,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1280,46 +1318,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1362,7 +1385,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1437,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,39 +1471,91 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>99806</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>455545</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="57150" y="314325"/>
+          <a:ext cx="1638300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99806" y="241853"/>
-          <a:ext cx="2128217" cy="563631"/>
+          <a:off x="0" y="276226"/>
+          <a:ext cx="1762125" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1512,7 +1587,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="non bao hiem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1640,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1689,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1738,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1787,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1831,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1905,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M37"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2171,713 +2246,179 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="72"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="72"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="72"/>
-    </row>
-    <row r="5" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="69"/>
+    </row>
+    <row r="5" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="67"/>
+      <c r="M8" s="25" t="s">
         <v>4</v>
-      </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="25" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <f>+A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <f t="shared" ref="A11:A20" si="0">+A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <f t="shared" si="0"/>
+      <c r="B9" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="65">
+        <v>719</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="66"/>
+      <c r="M9" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <f t="shared" si="0"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="64" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
-    </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
-    </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J22:M22"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.3" right="0.21" top="0.26" bottom="0.24" header="0.18" footer="0.17"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="72"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="72"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="139"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="72"/>
-    </row>
-    <row r="5" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62">
-        <v>1</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="62">
-        <v>1</v>
-      </c>
-      <c r="G9" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="60"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="64" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2925,25 +2466,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2970,32 +2511,356 @@
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="E2:K4"/>
+  <mergeCells count="23">
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J11:M11"/>
     <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.3" right="0.21" top="0.26" bottom="0.24" header="0.18" footer="0.17"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="69"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="69"/>
+    </row>
+    <row r="5" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="67"/>
+      <c r="M8" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62">
+        <v>1</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="63">
+        <v>20</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="83"/>
+      <c r="M9" s="60"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
   </mergeCells>
-  <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3005,7 +2870,7 @@
   <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3024,44 +2889,44 @@
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
-      <c r="C2" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="72"/>
+      <c r="C2" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
       <c r="B3" s="83"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="72"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="72"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="88"/>
       <c r="C5" s="88"/>
@@ -3072,45 +2937,45 @@
       <c r="H5" s="88"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="63" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="63"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3119,8 +2984,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3129,8 +2994,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3139,8 +3004,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3149,8 +3014,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3159,8 +3024,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3169,8 +3034,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3179,8 +3044,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3189,8 +3054,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3198,40 +3063,40 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="86"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="85"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="84"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="89"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3268,44 +3133,44 @@
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="72"/>
+      <c r="C24" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="83"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="72"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="83"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="72"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="88"/>
       <c r="C27" s="88"/>
@@ -3316,45 +3181,45 @@
       <c r="H27" s="88"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63" t="s">
+      <c r="G28" s="66"/>
+      <c r="H28" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="63" t="s">
+      <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="63"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3363,8 +3228,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3373,8 +3238,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3383,8 +3248,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3393,8 +3258,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3403,8 +3268,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3413,8 +3278,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3423,8 +3288,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3433,8 +3298,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3442,40 +3307,40 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85" t="s">
+      <c r="A39" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="85"/>
+      <c r="H39" s="86"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="84"/>
+      <c r="A40" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="89"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3489,48 +3354,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
@@ -3547,6 +3370,48 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.23" top="0.4" bottom="0.33" header="0.27" footer="0.23"/>
@@ -3560,7 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -3576,96 +3441,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="95"/>
       <c r="F2" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="96"/>
       <c r="D3" s="97"/>
       <c r="E3" s="98"/>
       <c r="F3" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="99"/>
       <c r="D4" s="100"/>
       <c r="E4" s="101"/>
       <c r="F4" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="92"/>
       <c r="F5" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3673,28 +3538,28 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3702,19 +3567,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3851,29 +3716,29 @@
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F37" s="102"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="13"/>
       <c r="E38" s="90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" s="90"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B39" s="91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="91"/>
       <c r="D39" s="18"/>
       <c r="E39" s="91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="91"/>
     </row>
@@ -3898,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3920,78 +3785,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="118"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
+      <c r="A5" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="28"/>
@@ -3999,49 +3864,49 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4049,7 +3914,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4057,84 +3922,84 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="G21" s="103"/>
+      <c r="H21" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="118"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="107" t="s">
+      <c r="G22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="104"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="112"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4179,26 +4044,26 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
+      <c r="D26" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="90" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90"/>
       <c r="D27" s="90"/>
       <c r="E27" s="90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="90"/>
       <c r="H27" s="90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27" s="90"/>
       <c r="J27" s="90"/>
@@ -4206,16 +4071,16 @@
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
       <c r="E28" s="91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="91"/>
       <c r="I28" s="91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" s="91"/>
       <c r="K28" s="30"/>
@@ -4252,74 +4117,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
+      <c r="B32" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
+      <c r="A33" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
+      <c r="A34" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
+      <c r="A35" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="A36" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4327,22 +4192,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4359,6 +4208,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4370,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4391,62 +4256,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="118"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="118"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="110"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="118"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="110"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
+      <c r="A5" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4460,45 +4325,45 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="125" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
+      <c r="H6" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="E7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="F7" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="H7" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="I7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="121"/>
+      <c r="J7" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="128"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4512,8 +4377,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="128"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4527,8 +4392,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4542,8 +4407,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="130"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4557,8 +4422,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="130"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4572,8 +4437,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4587,14 +4452,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="130"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="123"/>
+      <c r="A14" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="130"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4602,35 +4467,44 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
+      <c r="A16" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
+      <c r="E16" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4642,15 +4516,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4663,7 +4528,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G22" sqref="G22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4690,48 +4555,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="74" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="110"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="118"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="118"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="118"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4747,7 +4612,7 @@
     </row>
     <row r="6" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4756,7 +4621,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -4777,188 +4642,188 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="137" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
+        <v>73</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="134"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="134"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="138"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="134"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="134"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="138"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="134"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="134"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="138"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="134"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="138"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="134"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="138"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="134"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="138"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="134"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="138"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -4973,42 +4838,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
+      <c r="A21" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5018,9 +4883,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5030,9 +4895,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5042,9 +4907,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -5052,6 +4917,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -5059,38 +4956,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -328,36 +328,24 @@
     <t>Tên Khách hàng:…....................................................</t>
   </si>
   <si>
-    <t>Họ và tên người đề nghị: Hà Văn Thể</t>
-  </si>
-  <si>
     <t>Bộ phận/ Phòng ban: Phòng sản xuất - Bảo hành</t>
   </si>
   <si>
     <t>Số: PXK : 03</t>
   </si>
   <si>
-    <t>Hà Văn Thể</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Hoa</t>
   </si>
   <si>
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
-    <t>VT_Vỏ hộp_node_Temp</t>
-  </si>
-  <si>
     <t>Chiếc</t>
   </si>
   <si>
     <t>Lý do xuất kho</t>
   </si>
   <si>
-    <t>Sản xuất thiết bị ACT-01</t>
-  </si>
-  <si>
     <t>Ngày: 08 Tháng 12 Năm 2020</t>
   </si>
   <si>
@@ -370,13 +358,22 @@
     <t>Ngày: 20 Tháng 01 Năm 2021</t>
   </si>
   <si>
-    <t>VT_Fuse_60V_550mA</t>
-  </si>
-  <si>
-    <t>Nhập kho sản xuất thiết bị TG102LE-4G</t>
-  </si>
-  <si>
-    <t>Linh kiện nhập lại kho từ lô sx  ACT-01</t>
+    <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>Họ và tên người đề nghị: Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>TP_T102E1</t>
+  </si>
+  <si>
+    <t>Nhập kho thiết bị lỗi</t>
+  </si>
+  <si>
+    <t>TP_TG102E1</t>
+  </si>
+  <si>
+    <t>Xuất kho đổi mới thiết bị cho Đại lý Gia Thành</t>
   </si>
 </sst>
 </file>
@@ -384,8 +381,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -956,9 +953,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,7 +1047,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,6 +1111,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2223,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2246,72 +2246,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="69" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="69" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="69" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2323,29 +2323,29 @@
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67" t="s">
+      <c r="J8" s="68"/>
+      <c r="K8" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="68"/>
       <c r="M8" s="25" t="s">
         <v>4</v>
       </c>
@@ -2354,71 +2354,69 @@
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="3" t="s">
-        <v>103</v>
+      <c r="B9" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="66" t="s">
+        <v>100</v>
       </c>
       <c r="F9" s="65">
-        <v>719</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="86"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="80" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="80" t="s">
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="77" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="77" t="s">
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2466,25 +2464,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="77" t="s">
+      <c r="A16" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2537,7 +2535,7 @@
     <mergeCell ref="K9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.3" right="0.21" top="0.26" bottom="0.24" header="0.18" footer="0.17"/>
+  <pageMargins left="0.3" right="0.21" top="1" bottom="0.24" header="0.18" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
@@ -2548,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2571,72 +2569,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="69" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="69" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="69" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="64" t="s">
-        <v>98</v>
-      </c>
       <c r="K6" s="64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,100 +2646,100 @@
       <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="68"/>
       <c r="M8" s="61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62">
         <v>1</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="3" t="s">
-        <v>103</v>
+      <c r="B9" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="66" t="s">
+        <v>100</v>
       </c>
       <c r="F9" s="63">
-        <v>20</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="84"/>
       <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="80" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="80" t="s">
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="77" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="77" t="s">
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2789,25 +2787,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="77" t="s">
+      <c r="A16" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2859,7 +2857,7 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:M12"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0" right="0" top="1" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2887,95 +2885,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="69" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="69" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="69"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="69" t="s">
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="67"/>
+      <c r="H6" s="67" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2984,8 +2982,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2994,8 +2992,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3004,8 +3002,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3014,8 +3012,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3024,8 +3022,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3034,8 +3032,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3044,8 +3042,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3054,8 +3052,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3063,40 +3061,40 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="86"/>
+      <c r="H17" s="87"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="90"/>
+      <c r="C18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89" t="s">
+      <c r="D18" s="90"/>
+      <c r="E18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89" t="s">
+      <c r="F18" s="90"/>
+      <c r="G18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="89"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3131,95 +3129,95 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="87" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="69" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="69"/>
+      <c r="H24" s="70"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="69" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="70"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="69" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="69"/>
+      <c r="H26" s="70"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66" t="s">
+      <c r="G28" s="67"/>
+      <c r="H28" s="67" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3228,8 +3226,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3238,8 +3236,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3248,8 +3246,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3258,8 +3256,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3268,8 +3266,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3278,8 +3276,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3288,8 +3286,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3298,8 +3296,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3307,40 +3305,40 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86" t="s">
+      <c r="B39" s="87"/>
+      <c r="C39" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86" t="s">
+      <c r="D39" s="87"/>
+      <c r="E39" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86" t="s">
+      <c r="F39" s="87"/>
+      <c r="G39" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="86"/>
+      <c r="H39" s="87"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89" t="s">
+      <c r="D40" s="90"/>
+      <c r="E40" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89" t="s">
+      <c r="F40" s="90"/>
+      <c r="G40" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="89"/>
+      <c r="H40" s="90"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3441,42 +3439,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="93" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="93"/>
       <c r="F5" s="23" t="s">
         <v>49</v>
       </c>
@@ -3715,32 +3713,32 @@
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="102" t="s">
+      <c r="E37" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="102"/>
+      <c r="F37" s="103"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="90"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="90"/>
+      <c r="F38" s="91"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="91"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="91"/>
+      <c r="F39" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3785,78 +3783,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="28"/>
@@ -3948,58 +3946,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103" t="s">
+      <c r="G21" s="104"/>
+      <c r="H21" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="103" t="s">
+      <c r="I21" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="112" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="103"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="112"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="113"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4044,45 +4042,45 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90" t="s">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="H27" s="90" t="s">
+      <c r="F27" s="91"/>
+      <c r="H27" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="I28" s="91" t="s">
+      <c r="F28" s="92"/>
+      <c r="I28" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="91"/>
+      <c r="J28" s="92"/>
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,74 +4115,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4256,62 +4254,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="108" t="s">
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="110"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="108" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="110"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="108" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4325,12 +4323,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
@@ -4360,10 +4358,10 @@
       <c r="I7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="128"/>
+      <c r="K7" s="129"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4377,8 +4375,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4392,8 +4390,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4407,8 +4405,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4422,8 +4420,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="124"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4437,8 +4435,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4452,14 +4450,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4467,30 +4465,30 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="126"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="120"/>
+      <c r="G16" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119" t="s">
+      <c r="H16" s="120"/>
+      <c r="I16" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
@@ -4555,48 +4553,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="108" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="110"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="108" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="110"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="108" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4642,11 +4640,11 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
@@ -4656,174 +4654,174 @@
       <c r="G8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="138"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="139"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="138"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="138"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="139"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="138"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="138"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="138"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="139"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="138"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="138"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="139"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="138"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="138"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -4838,42 +4836,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81" t="s">
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81" t="s">
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -4883,9 +4881,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -4895,9 +4893,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -4907,9 +4905,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>

--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -346,9 +346,6 @@
     <t>Lý do xuất kho</t>
   </si>
   <si>
-    <t>Ngày: 08 Tháng 12 Năm 2020</t>
-  </si>
-  <si>
     <t>Bộ phận/ Phòng ban: Sản xuất - Bảo hành</t>
   </si>
   <si>
@@ -370,10 +367,13 @@
     <t>Nhập kho thiết bị lỗi</t>
   </si>
   <si>
-    <t>TP_TG102E1</t>
-  </si>
-  <si>
-    <t>Xuất kho đổi mới thiết bị cho Đại lý Gia Thành</t>
+    <t>Xuất kho thay thế linh kiện bảo hành Đại lý Vietcom</t>
+  </si>
+  <si>
+    <t>VT_VỎ HỘP_TG102LE</t>
+  </si>
+  <si>
+    <t>Ngày: 02 Tháng 02 Năm 2021</t>
   </si>
 </sst>
 </file>
@@ -955,7 +955,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1098,16 +1098,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1117,7 +1108,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,25 +1162,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,16 +1171,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1228,8 +1222,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1252,28 +1270,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1297,26 +1312,17 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1333,16 +1339,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1403,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1455,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1504,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,22 +1541,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>666751</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,8 +1572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="276226"/>
-          <a:ext cx="1762125" cy="552450"/>
+          <a:off x="47626" y="247651"/>
+          <a:ext cx="1695450" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1587,7 +1605,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="non bao hiem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1658,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1707,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1756,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1805,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1849,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1923,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,76 +2264,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="70" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="70"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="70" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="70" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="70"/>
-    </row>
-    <row r="5" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="M4" s="74"/>
+    </row>
+    <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="K6" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    </row>
+    <row r="7" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2323,29 +2341,29 @@
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68" t="s">
+      <c r="H8" s="72"/>
+      <c r="I8" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68" t="s">
+      <c r="J8" s="72"/>
+      <c r="K8" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="68"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="25" t="s">
         <v>4</v>
       </c>
@@ -2354,69 +2372,69 @@
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="62">
+        <v>1</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="65">
-        <v>1</v>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="86"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="81" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="81" t="s">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="78" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="78" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2464,25 +2482,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="78" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2510,15 +2528,6 @@
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A2:C4"/>
@@ -2533,6 +2542,15 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.3" right="0.21" top="1" bottom="0.24" header="0.18" footer="0.17"/>
@@ -2547,7 +2565,7 @@
   <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2569,177 +2587,177 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="70" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="70"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="70" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="70" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="70"/>
-    </row>
-    <row r="5" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="M4" s="74"/>
+    </row>
+    <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="K6" s="61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="61" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68" t="s">
+      <c r="H8" s="72"/>
+      <c r="I8" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68" t="s">
+      <c r="J8" s="72"/>
+      <c r="K8" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="68"/>
-      <c r="M8" s="61" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="66" t="s">
+      <c r="C9" s="146"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="63">
-        <v>1</v>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="84"/>
-      <c r="M9" s="60"/>
+      <c r="F9" s="148">
+        <v>10</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="144"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="81" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="81" t="s">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="78" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="78" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2787,25 +2805,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="78" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2832,13 +2850,13 @@
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+  <mergeCells count="22">
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:M11"/>
@@ -2850,12 +2868,11 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D2:K4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="1" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2885,95 +2902,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="88" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
       <c r="F2" s="88"/>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="70"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="88"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="88"/>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="70"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="82"/>
+      <c r="H6" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="67"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2982,8 +2999,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2992,8 +3009,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3002,8 +3019,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3012,8 +3029,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3022,8 +3039,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3032,8 +3049,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3042,8 +3059,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3052,8 +3069,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3061,40 +3078,40 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87" t="s">
+      <c r="D17" s="86"/>
+      <c r="E17" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87" t="s">
+      <c r="F17" s="86"/>
+      <c r="G17" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="87"/>
+      <c r="H17" s="86"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90" t="s">
+      <c r="B18" s="85"/>
+      <c r="C18" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90" t="s">
+      <c r="D18" s="85"/>
+      <c r="E18" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90" t="s">
+      <c r="F18" s="85"/>
+      <c r="G18" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="90"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3129,95 +3146,95 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="88" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="88"/>
       <c r="E24" s="88"/>
       <c r="F24" s="88"/>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="70"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="70"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
       <c r="E26" s="88"/>
       <c r="F26" s="88"/>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="70"/>
+      <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67" t="s">
+      <c r="C28" s="82"/>
+      <c r="D28" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67" t="s">
+      <c r="G28" s="82"/>
+      <c r="H28" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="82"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3226,8 +3243,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3236,8 +3253,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3246,8 +3263,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3256,8 +3273,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3266,8 +3283,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3276,8 +3293,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3286,8 +3303,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3296,8 +3313,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="86"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3305,40 +3322,40 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87" t="s">
+      <c r="B39" s="86"/>
+      <c r="C39" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87" t="s">
+      <c r="D39" s="86"/>
+      <c r="E39" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87" t="s">
+      <c r="F39" s="86"/>
+      <c r="G39" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="87"/>
+      <c r="H39" s="86"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90" t="s">
+      <c r="D40" s="85"/>
+      <c r="E40" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90" t="s">
+      <c r="F40" s="85"/>
+      <c r="G40" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="90"/>
+      <c r="H40" s="85"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3352,6 +3369,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
@@ -3368,48 +3427,6 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.23" top="0.4" bottom="0.33" header="0.27" footer="0.23"/>
@@ -3439,42 +3456,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="94" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="93"/>
+      <c r="B5" s="91"/>
       <c r="F5" s="23" t="s">
         <v>49</v>
       </c>
@@ -3713,32 +3730,32 @@
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="103"/>
+      <c r="F37" s="101"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="91"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="91" t="s">
+      <c r="E38" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="91"/>
+      <c r="F38" s="89"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="92"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="92" t="s">
+      <c r="E39" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="92"/>
+      <c r="F39" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3783,78 +3800,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="108" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="109" t="s">
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107" t="s">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="28"/>
@@ -3946,58 +3963,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104" t="s">
+      <c r="G21" s="106"/>
+      <c r="H21" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="104" t="s">
+      <c r="I21" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="104" t="s">
+      <c r="J21" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="114" t="s">
+      <c r="K21" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="112" t="s">
+      <c r="L21" s="102" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="119"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="104"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="113"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="103"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4042,45 +4059,45 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="H27" s="91" t="s">
+      <c r="F27" s="89"/>
+      <c r="H27" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92" t="s">
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="92"/>
-      <c r="I28" s="92" t="s">
+      <c r="F28" s="90"/>
+      <c r="I28" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="92"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4115,74 +4132,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4190,6 +4207,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4206,22 +4239,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4254,62 +4271,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="109" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="111"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="109" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="111"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="109" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="111"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4323,12 +4340,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
@@ -4358,10 +4375,10 @@
       <c r="I7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="128" t="s">
+      <c r="J7" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="129"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4375,8 +4392,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4390,8 +4407,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="122"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="127"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4405,8 +4422,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4420,8 +4437,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="124"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4435,8 +4452,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="124"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4450,14 +4467,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="124"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4465,44 +4482,35 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="120" t="s">
+      <c r="E16" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120" t="s">
+      <c r="F16" s="125"/>
+      <c r="G16" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120" t="s">
+      <c r="H16" s="125"/>
+      <c r="I16" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4514,6 +4522,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4553,48 +4570,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="109" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="111"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="109" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="111"/>
+      <c r="J3" s="117"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="109" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="111"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4640,11 +4657,11 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
@@ -4654,174 +4671,174 @@
       <c r="G8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="134" t="s">
+      <c r="H8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="139"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="133"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="139"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="133"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="139"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="139"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="133"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="139"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="139"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="133"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="139"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="133"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="139"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="133"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="139"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="133"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="139"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="133"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -4836,42 +4853,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82" t="s">
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -4881,9 +4898,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -4893,9 +4910,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -4905,9 +4922,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -4915,6 +4932,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -4922,38 +4971,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -367,13 +367,22 @@
     <t>Nhập kho thiết bị lỗi</t>
   </si>
   <si>
-    <t>Xuất kho thay thế linh kiện bảo hành Đại lý Vietcom</t>
-  </si>
-  <si>
-    <t>VT_VỎ HỘP_TG102LE</t>
-  </si>
-  <si>
-    <t>Ngày: 02 Tháng 02 Năm 2021</t>
+    <t>VT_Module_SIM868</t>
+  </si>
+  <si>
+    <t>Xuất kho thay thế linh kiện cho đại lý Taris Sài Gòn ( thiết bị còn bảo hành)</t>
+  </si>
+  <si>
+    <t>Ngày: 18 Tháng 02 Năm 2021</t>
+  </si>
+  <si>
+    <t>VT_DIODE_SMCJ45A</t>
+  </si>
+  <si>
+    <t>VT_IC_STM32F030RCT6</t>
+  </si>
+  <si>
+    <t>VT_Connector__Socket micro SIM2</t>
   </si>
 </sst>
 </file>
@@ -955,7 +964,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1111,22 +1120,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,16 +1171,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1222,6 +1264,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1232,9 +1298,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1249,26 +1312,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1291,76 +1354,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1403,7 +1430,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1482,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1531,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1583,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1632,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="non bao hiem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1685,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1734,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1783,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1832,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1876,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1950,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,57 +2291,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="76" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="74" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="74" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="74" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -2341,29 +2368,29 @@
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72" t="s">
+      <c r="H8" s="69"/>
+      <c r="I8" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="72"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="25" t="s">
         <v>4</v>
       </c>
@@ -2372,69 +2399,69 @@
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="63" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="62">
         <v>1</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83" t="s">
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="84"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="68" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="68" t="s">
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="65" t="s">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2482,25 +2509,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="65" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="65" t="s">
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2528,6 +2555,15 @@
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A2:C4"/>
@@ -2542,15 +2578,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.3" right="0.21" top="1" bottom="0.24" header="0.18" footer="0.17"/>
@@ -2562,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2587,57 +2614,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="76" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="74" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="74" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="74" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -2664,215 +2691,290 @@
       <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="60" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72" t="s">
+      <c r="H8" s="69"/>
+      <c r="I8" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="72"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="67">
+        <v>8</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="148" t="s">
+      <c r="L9" s="150"/>
+      <c r="M9" s="64"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67">
+        <v>2</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="148">
-        <v>10</v>
-      </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="144"/>
-      <c r="M9" s="64"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="F10" s="67">
+        <v>2</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="64"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67">
+        <v>3</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="67">
+        <v>20</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67">
+        <v>4</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="67">
+        <v>2</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="64"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="68" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="68" t="s">
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="65" t="s">
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="84"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="65" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="65" t="s">
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="84"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:H9"/>
+  <mergeCells count="28">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="D2:K4"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="1" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2902,95 +3004,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="74" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="74"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="74" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="74"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="74" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="74"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2999,8 +3101,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3009,8 +3111,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3019,8 +3121,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3029,8 +3131,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3039,8 +3141,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3049,8 +3151,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3059,8 +3161,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3069,8 +3171,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3078,40 +3180,40 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86" t="s">
+      <c r="D17" s="96"/>
+      <c r="E17" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86" t="s">
+      <c r="F17" s="96"/>
+      <c r="G17" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="86"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85" t="s">
+      <c r="D18" s="99"/>
+      <c r="E18" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="85"/>
+      <c r="H18" s="99"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3146,95 +3248,95 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="88" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="74" t="s">
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="74"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="74" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="74"/>
+      <c r="H25" s="71"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="74" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="74"/>
+      <c r="H26" s="71"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82" t="s">
+      <c r="C28" s="79"/>
+      <c r="D28" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="82" t="s">
+      <c r="F28" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82" t="s">
+      <c r="G28" s="79"/>
+      <c r="H28" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="82"/>
+      <c r="H29" s="79"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3243,8 +3345,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3253,8 +3355,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3263,8 +3365,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3273,8 +3375,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3283,8 +3385,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3293,8 +3395,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3303,8 +3405,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3313,8 +3415,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3322,40 +3424,40 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86" t="s">
+      <c r="B39" s="96"/>
+      <c r="C39" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86" t="s">
+      <c r="D39" s="96"/>
+      <c r="E39" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86" t="s">
+      <c r="F39" s="96"/>
+      <c r="G39" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="86"/>
+      <c r="H39" s="96"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85" t="s">
+      <c r="B40" s="99"/>
+      <c r="C40" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85" t="s">
+      <c r="D40" s="99"/>
+      <c r="E40" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85" t="s">
+      <c r="F40" s="99"/>
+      <c r="G40" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="85"/>
+      <c r="H40" s="99"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3369,48 +3471,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
@@ -3427,6 +3487,48 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.23" top="0.4" bottom="0.33" header="0.27" footer="0.23"/>
@@ -3456,42 +3558,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="92" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="102"/>
       <c r="F5" s="23" t="s">
         <v>49</v>
       </c>
@@ -3730,32 +3832,32 @@
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="101"/>
+      <c r="F37" s="112"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="89"/>
+      <c r="F38" s="100"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="90"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="90" t="s">
+      <c r="E39" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="90"/>
+      <c r="F39" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3800,78 +3902,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="114" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="120"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113" t="s">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="28"/>
@@ -3963,58 +4065,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="106" t="s">
+      <c r="E21" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106" t="s">
+      <c r="G21" s="113"/>
+      <c r="H21" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="106" t="s">
+      <c r="I21" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="106" t="s">
+      <c r="J21" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="104" t="s">
+      <c r="K21" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="102" t="s">
+      <c r="L21" s="121" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="106"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="103"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="122"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4059,45 +4161,45 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="89"/>
-      <c r="H27" s="89" t="s">
+      <c r="F27" s="100"/>
+      <c r="H27" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90" t="s">
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="90"/>
-      <c r="I28" s="90" t="s">
+      <c r="F28" s="101"/>
+      <c r="I28" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="90"/>
+      <c r="J28" s="101"/>
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4132,74 +4234,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4207,22 +4309,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4239,6 +4325,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4271,62 +4373,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="115" t="s">
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="117"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="115" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="117"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="115" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="117"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4340,12 +4442,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
@@ -4375,10 +4477,10 @@
       <c r="I7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="120"/>
+      <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4392,8 +4494,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="127"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4407,8 +4509,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="127"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4422,8 +4524,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4437,8 +4539,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="133"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4452,8 +4554,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="133"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4467,14 +4569,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="133"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="122"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4482,35 +4584,44 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="135"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125" t="s">
+      <c r="F16" s="129"/>
+      <c r="G16" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125" t="s">
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4522,15 +4633,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4570,48 +4672,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="76" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="115" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="115" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="117"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="115" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="117"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4657,11 +4759,11 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
@@ -4671,174 +4773,174 @@
       <c r="G8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="137"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="133"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="133"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="145"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="133"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="145"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="133"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="145"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="133"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="145"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="133"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="145"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="133"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="133"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="145"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="133"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="145"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="133"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="135"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -4853,42 +4955,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69" t="s">
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -4898,9 +5000,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -4910,9 +5012,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -4922,9 +5024,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -4932,6 +5034,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -4939,38 +5073,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -367,22 +367,19 @@
     <t>Nhập kho thiết bị lỗi</t>
   </si>
   <si>
-    <t>VT_Module_SIM868</t>
-  </si>
-  <si>
-    <t>Xuất kho thay thế linh kiện cho đại lý Taris Sài Gòn ( thiết bị còn bảo hành)</t>
-  </si>
-  <si>
-    <t>Ngày: 18 Tháng 02 Năm 2021</t>
-  </si>
-  <si>
-    <t>VT_DIODE_SMCJ45A</t>
-  </si>
-  <si>
-    <t>VT_IC_STM32F030RCT6</t>
-  </si>
-  <si>
-    <t>VT_Connector__Socket micro SIM2</t>
+    <t>VT_IC_STM32F103VCT6</t>
+  </si>
+  <si>
+    <t>Thay thế linh kiện sửa chữa đại lý Anh Tuấn Bắc Giang</t>
+  </si>
+  <si>
+    <t>Thiết bị hết bảo hành</t>
+  </si>
+  <si>
+    <t>Ngày: 27 Tháng 02 Năm 2021</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng: Đại lý Anh Tuấn Bắc Giang</t>
   </si>
 </sst>
 </file>
@@ -964,7 +961,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1117,16 +1114,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,39 +1177,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,16 +1186,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1264,8 +1237,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1288,28 +1285,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1333,26 +1327,17 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1360,34 +1345,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1430,7 +1391,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1443,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1492,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1544,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1593,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="non bao hiem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1646,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1695,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1744,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1793,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1837,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1911,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,57 +2252,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="71" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="71"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="71" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="71"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="71" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -2368,29 +2329,29 @@
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69" t="s">
+      <c r="H8" s="72"/>
+      <c r="I8" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69" t="s">
+      <c r="J8" s="72"/>
+      <c r="K8" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="69"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="25" t="s">
         <v>4</v>
       </c>
@@ -2399,69 +2360,69 @@
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="63" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="62">
         <v>1</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="81"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="85" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="85" t="s">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="82" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="82" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2509,25 +2470,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="82" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="82" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="84"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2555,15 +2516,6 @@
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A2:C4"/>
@@ -2578,6 +2530,15 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.3" right="0.21" top="1" bottom="0.24" header="0.18" footer="0.17"/>
@@ -2589,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M29"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2614,57 +2575,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="71" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="71"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="71" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="71"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="71" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -2679,302 +2640,233 @@
         <v>97</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="60" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69" t="s">
+      <c r="H8" s="72"/>
+      <c r="I8" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69" t="s">
+      <c r="J8" s="72"/>
+      <c r="K8" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="69"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="67" t="s">
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="67">
-        <v>8</v>
-      </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="149" t="s">
+      <c r="F9" s="64">
+        <v>1</v>
+      </c>
+      <c r="G9" s="142">
+        <v>190000</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142">
+        <v>190000</v>
+      </c>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="150"/>
-      <c r="M9" s="64"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67">
-        <v>2</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="67">
-        <v>2</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="64"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67">
-        <v>3</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="67">
-        <v>20</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="64"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67">
-        <v>4</v>
-      </c>
-      <c r="B12" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="67">
-        <v>2</v>
-      </c>
-      <c r="G12" s="65"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="66"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="64"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9"/>
+    </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="84"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-    </row>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I10:J10"/>
+  <mergeCells count="22">
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="D2:K4"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="1" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3004,95 +2896,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="97" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="71" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="71" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="71"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="71" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="71"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79" t="s">
+      <c r="G6" s="82"/>
+      <c r="H6" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="79"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3101,8 +2993,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3111,8 +3003,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3121,8 +3013,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3131,8 +3023,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3141,8 +3033,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3151,8 +3043,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3161,8 +3053,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3171,8 +3063,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3180,40 +3072,40 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96" t="s">
+      <c r="D17" s="89"/>
+      <c r="E17" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96" t="s">
+      <c r="F17" s="89"/>
+      <c r="G17" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="96"/>
+      <c r="H17" s="89"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99" t="s">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99" t="s">
+      <c r="D18" s="88"/>
+      <c r="E18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99" t="s">
+      <c r="F18" s="88"/>
+      <c r="G18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="99"/>
+      <c r="H18" s="88"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3248,95 +3140,95 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="97" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="71" t="s">
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="71"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="71" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="71"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="71" t="s">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="71"/>
+      <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79" t="s">
+      <c r="C28" s="82"/>
+      <c r="D28" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79" t="s">
+      <c r="G28" s="82"/>
+      <c r="H28" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="79"/>
+      <c r="H29" s="82"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3345,8 +3237,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3355,8 +3247,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3365,8 +3257,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3375,8 +3267,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3385,8 +3277,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3395,8 +3287,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3405,8 +3297,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3415,8 +3307,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3424,40 +3316,40 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96" t="s">
+      <c r="B39" s="89"/>
+      <c r="C39" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96" t="s">
+      <c r="D39" s="89"/>
+      <c r="E39" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96" t="s">
+      <c r="F39" s="89"/>
+      <c r="G39" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="96"/>
+      <c r="H39" s="89"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="99" t="s">
+      <c r="A40" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99" t="s">
+      <c r="B40" s="88"/>
+      <c r="C40" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99" t="s">
+      <c r="D40" s="88"/>
+      <c r="E40" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99" t="s">
+      <c r="F40" s="88"/>
+      <c r="G40" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="99"/>
+      <c r="H40" s="88"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3471,6 +3363,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
@@ -3487,48 +3421,6 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.23" top="0.4" bottom="0.33" header="0.27" footer="0.23"/>
@@ -3558,42 +3450,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="103" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
       <c r="F4" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="94"/>
       <c r="F5" s="23" t="s">
         <v>49</v>
       </c>
@@ -3832,32 +3724,32 @@
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="112" t="s">
+      <c r="E37" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="112"/>
+      <c r="F37" s="104"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="100"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="100" t="s">
+      <c r="E38" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="100"/>
+      <c r="F38" s="92"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="101"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="101" t="s">
+      <c r="E39" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="101"/>
+      <c r="F39" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3902,8 +3794,8 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="117" t="s">
         <v>34</v>
       </c>
@@ -3920,8 +3812,8 @@
       <c r="L2" s="120"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="117"/>
       <c r="D3" s="117"/>
       <c r="E3" s="117"/>
@@ -3936,8 +3828,8 @@
       <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
       <c r="E4" s="117"/>
@@ -4065,7 +3957,7 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="113" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="114" t="s">
@@ -4077,46 +3969,46 @@
       <c r="D21" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113" t="s">
+      <c r="G21" s="109"/>
+      <c r="H21" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="113" t="s">
+      <c r="I21" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="113" t="s">
+      <c r="J21" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="123" t="s">
+      <c r="K21" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="121" t="s">
+      <c r="L21" s="105" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="128"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="114"/>
       <c r="C22" s="114"/>
       <c r="D22" s="114"/>
-      <c r="E22" s="113"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="122"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="106"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4161,45 +4053,45 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="127" t="s">
+      <c r="D26" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="H27" s="100" t="s">
+      <c r="F27" s="92"/>
+      <c r="H27" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101" t="s">
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="101"/>
-      <c r="I28" s="101" t="s">
+      <c r="F28" s="93"/>
+      <c r="I28" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="101"/>
+      <c r="J28" s="93"/>
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,74 +4126,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="126" t="s">
+      <c r="B32" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4309,6 +4201,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4325,22 +4233,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4373,47 +4265,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="97" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
       <c r="J2" s="118" t="s">
         <v>77</v>
       </c>
       <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="118" t="s">
         <v>76</v>
       </c>
       <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
       <c r="J4" s="118" t="s">
         <v>66</v>
       </c>
@@ -4424,11 +4316,11 @@
         <v>65</v>
       </c>
       <c r="B5" s="116"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4442,12 +4334,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
@@ -4477,10 +4369,10 @@
       <c r="I7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="138"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4494,8 +4386,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4509,8 +4401,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4524,8 +4416,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4539,8 +4431,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="132"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4554,8 +4446,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="133"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4569,14 +4461,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="133"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="132"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="140"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4584,44 +4476,35 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="135"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="129" t="s">
+      <c r="E16" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129" t="s">
+      <c r="F16" s="128"/>
+      <c r="G16" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129" t="s">
+      <c r="H16" s="128"/>
+      <c r="I16" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4633,6 +4516,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4672,44 +4564,44 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="118" t="s">
         <v>75</v>
       </c>
       <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="118" t="s">
         <v>76</v>
       </c>
       <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="118" t="s">
         <v>66</v>
       </c>
@@ -4759,11 +4651,11 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
@@ -4773,174 +4665,174 @@
       <c r="G8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="143" t="s">
+      <c r="H8" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="140"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="145"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="145"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="136"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="145"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="136"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="145"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="136"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="145"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="136"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="145"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="136"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="145"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="136"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="145"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="136"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="145"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="136"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="145"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="136"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -4955,42 +4847,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86" t="s">
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="84"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5000,9 +4892,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5012,9 +4904,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5024,9 +4916,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -5034,6 +4926,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -5041,38 +4965,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Lý do nhập kho</t>
   </si>
   <si>
-    <t>Tên Khách hàng:…....................................................</t>
-  </si>
-  <si>
     <t>Bộ phận/ Phòng ban: Phòng sản xuất - Bảo hành</t>
   </si>
   <si>
@@ -352,34 +349,28 @@
     <t>Số: PNK 02</t>
   </si>
   <si>
-    <t>Ngày: 20 Tháng 01 Năm 2021</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
     <t>Họ và tên người đề nghị: Nguyễn Minh Tùng</t>
   </si>
   <si>
-    <t>TP_T102E1</t>
-  </si>
-  <si>
-    <t>Nhập kho thiết bị lỗi</t>
-  </si>
-  <si>
-    <t>VT_IC_STM32F103VCT6</t>
-  </si>
-  <si>
-    <t>Thay thế linh kiện sửa chữa đại lý Anh Tuấn Bắc Giang</t>
-  </si>
-  <si>
-    <t>Thiết bị hết bảo hành</t>
-  </si>
-  <si>
-    <t>Ngày: 27 Tháng 02 Năm 2021</t>
-  </si>
-  <si>
-    <t>Tên Khách hàng: Đại lý Anh Tuấn Bắc Giang</t>
+    <t>Xuất kho đổi mới cho đại lý Kim Long ( thiết bị còn bảo hành)</t>
+  </si>
+  <si>
+    <t>TP_ACT01 Trơn</t>
+  </si>
+  <si>
+    <t>Ngày: 03 Tháng 03 Năm 2021</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng: Đại lý Kim Long</t>
+  </si>
+  <si>
+    <t>Nhập kho thiết bị lỗi đại lý Kim Long</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng: Phòng BH</t>
   </si>
 </sst>
 </file>
@@ -961,7 +952,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1117,6 +1108,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1186,6 +1180,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1343,12 +1343,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2229,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2232,7 @@
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
@@ -2252,177 +2246,177 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="76" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="74" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="74" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="74" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="61" t="s">
-        <v>103</v>
-      </c>
       <c r="K6" s="61" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72" t="s">
+      <c r="H8" s="73"/>
+      <c r="I8" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72" t="s">
+      <c r="J8" s="73"/>
+      <c r="K8" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="72"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
+      <c r="B9" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="62">
-        <v>1</v>
-      </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="84"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="85"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="68" t="s">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="65" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2470,25 +2464,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2552,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2565,193 +2559,187 @@
     <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="76" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="74" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="74" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="74" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="61" t="s">
-        <v>97</v>
-      </c>
       <c r="K6" s="61" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="60" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72" t="s">
+      <c r="H8" s="73"/>
+      <c r="I8" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="73"/>
       <c r="M8" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64">
+      <c r="A9" s="65">
         <v>1</v>
       </c>
-      <c r="B9" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
+      <c r="B9" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="64">
-        <v>1</v>
-      </c>
-      <c r="G9" s="142">
-        <v>190000</v>
-      </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142">
-        <v>190000</v>
-      </c>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="141"/>
-      <c r="M9" s="64" t="s">
-        <v>111</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G9" s="90"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="89"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="68" t="s">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="65" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2799,25 +2787,25 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -2896,95 +2884,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="91" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="74" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="74"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="74"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="74" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="74"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82" t="s">
+      <c r="G6" s="83"/>
+      <c r="H6" s="83" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2993,8 +2981,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3003,8 +2991,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3013,8 +3001,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3023,8 +3011,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3033,8 +3021,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3043,8 +3031,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3053,8 +3041,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3063,8 +3051,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3072,40 +3060,40 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89" t="s">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89" t="s">
+      <c r="F17" s="92"/>
+      <c r="G17" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="89"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88" t="s">
+      <c r="B18" s="91"/>
+      <c r="C18" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88" t="s">
+      <c r="D18" s="91"/>
+      <c r="E18" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88" t="s">
+      <c r="F18" s="91"/>
+      <c r="G18" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="88"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3140,95 +3128,95 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="91" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="74" t="s">
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="74"/>
+      <c r="H24" s="75"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="74" t="s">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="74"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="74" t="s">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="74"/>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82" t="s">
+      <c r="C28" s="83"/>
+      <c r="D28" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="82" t="s">
+      <c r="F28" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82" t="s">
+      <c r="G28" s="83"/>
+      <c r="H28" s="83" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="82"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3237,8 +3225,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3247,8 +3235,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3257,8 +3245,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3267,8 +3255,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3277,8 +3265,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3287,8 +3275,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3297,8 +3285,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3307,8 +3295,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3316,40 +3304,40 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89" t="s">
+      <c r="B39" s="92"/>
+      <c r="C39" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89" t="s">
+      <c r="D39" s="92"/>
+      <c r="E39" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89" t="s">
+      <c r="F39" s="92"/>
+      <c r="G39" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="89"/>
+      <c r="H39" s="92"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88" t="s">
+      <c r="B40" s="91"/>
+      <c r="C40" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88" t="s">
+      <c r="D40" s="91"/>
+      <c r="E40" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88" t="s">
+      <c r="F40" s="91"/>
+      <c r="G40" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3450,42 +3438,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="95" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
       <c r="F4" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="97"/>
       <c r="F5" s="23" t="s">
         <v>49</v>
       </c>
@@ -3724,32 +3712,32 @@
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="104" t="s">
+      <c r="E37" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="104"/>
+      <c r="F37" s="107"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="92"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="92" t="s">
+      <c r="E38" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="92"/>
+      <c r="F38" s="95"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="93"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3794,78 +3782,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="117" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="120"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="118" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="119"/>
-      <c r="L3" s="120"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="123"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="118" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="28"/>
@@ -3957,58 +3945,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="109" t="s">
+      <c r="E21" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="109" t="s">
+      <c r="F21" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109" t="s">
+      <c r="G21" s="112"/>
+      <c r="H21" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="109" t="s">
+      <c r="I21" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="109" t="s">
+      <c r="J21" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="107" t="s">
+      <c r="K21" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="105" t="s">
+      <c r="L21" s="108" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="109"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="106"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="109"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4053,45 +4041,45 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92" t="s">
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="92"/>
-      <c r="H27" s="92" t="s">
+      <c r="F27" s="95"/>
+      <c r="H27" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93" t="s">
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="93"/>
-      <c r="I28" s="93" t="s">
+      <c r="F28" s="96"/>
+      <c r="I28" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="93"/>
+      <c r="J28" s="96"/>
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4126,74 +4114,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4265,62 +4253,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="91" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="118" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="120"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="118" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="120"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="118" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="120"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4334,12 +4322,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
@@ -4369,10 +4357,10 @@
       <c r="I7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="J7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="123"/>
+      <c r="K7" s="126"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4386,8 +4374,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="130"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4401,8 +4389,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="130"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4416,8 +4404,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="135"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4431,8 +4419,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="132"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="135"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4446,8 +4434,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4461,14 +4449,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="132"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="125"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4476,30 +4464,30 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="137"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="128" t="s">
+      <c r="E16" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128" t="s">
+      <c r="H16" s="131"/>
+      <c r="I16" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
@@ -4564,48 +4552,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="76" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="118" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="120"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="118" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="120"/>
+      <c r="J3" s="123"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="118" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="120"/>
+      <c r="J4" s="123"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4651,11 +4639,11 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
@@ -4665,174 +4653,174 @@
       <c r="G8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="139"/>
-      <c r="J8" s="140"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="143"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="136"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="139"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="136"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="136"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="139"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="136"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="136"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="136"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="139"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="136"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="136"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="139"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="136"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="136"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -4847,42 +4835,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69" t="s">
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -4892,9 +4880,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -4904,9 +4892,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -4916,9 +4904,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>

--- a/BM.01-05-QT.WH.01.xlsx
+++ b/BM.01-05-QT.WH.01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -355,22 +355,34 @@
     <t>Họ và tên người đề nghị: Nguyễn Minh Tùng</t>
   </si>
   <si>
-    <t>Xuất kho đổi mới cho đại lý Kim Long ( thiết bị còn bảo hành)</t>
-  </si>
-  <si>
     <t>TP_ACT01 Trơn</t>
   </si>
   <si>
     <t>Ngày: 03 Tháng 03 Năm 2021</t>
   </si>
   <si>
-    <t>Tên Khách hàng: Đại lý Kim Long</t>
-  </si>
-  <si>
-    <t>Nhập kho thiết bị lỗi đại lý Kim Long</t>
-  </si>
-  <si>
-    <t>Tên Khách hàng: Phòng BH</t>
+    <t xml:space="preserve">Tên Khách hàng: </t>
+  </si>
+  <si>
+    <t>Tên Khách hàng: Đại lý Econtrol</t>
+  </si>
+  <si>
+    <t>Ngày: 04 Tháng 03 Năm 2021</t>
+  </si>
+  <si>
+    <t>Phó Phòng Kỹ Thuật</t>
+  </si>
+  <si>
+    <t>Hà Văn Thể</t>
+  </si>
+  <si>
+    <t>VT_IC_STM32F103VCT6</t>
+  </si>
+  <si>
+    <t>Xuất kho thay thế linh kiện sửa chữa</t>
+  </si>
+  <si>
+    <t>VT_IC_MAX3232</t>
   </si>
 </sst>
 </file>
@@ -952,7 +964,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,28 +1117,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,6 +1165,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,22 +1198,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1237,6 +1249,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,9 +1283,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,26 +1297,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1306,43 +1339,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1424,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1476,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1525,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1577,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1626,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="non bao hiem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1679,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C890F77-35A4-43DF-881F-4D6CE12CE4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1728,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1777,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1826,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1870,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1944,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2246,57 +2285,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="77" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="75" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="75"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="75" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="75"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="75" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -2311,127 +2350,125 @@
         <v>102</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73" t="s">
+      <c r="H8" s="67"/>
+      <c r="I8" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73" t="s">
+      <c r="J8" s="67"/>
+      <c r="K8" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="73"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="64"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="63" t="s">
+      <c r="B10" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F10" s="62">
         <v>2</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="69" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="69" t="s">
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="66" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="66" t="s">
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="9"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -2463,43 +2500,57 @@
       <c r="L15" s="5"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="66" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="66" t="s">
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="82"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2508,9 +2559,20 @@
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="26">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="L2:M2"/>
@@ -2521,18 +2583,11 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.3" right="0.21" top="1" bottom="0.24" header="0.18" footer="0.17"/>
@@ -2544,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2569,57 +2624,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="77" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="75" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="75"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="75" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="75"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="75" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -2634,7 +2689,7 @@
         <v>96</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,128 +2701,150 @@
       <c r="A8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="60" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73" t="s">
+      <c r="H8" s="67"/>
+      <c r="I8" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73" t="s">
+      <c r="J8" s="67"/>
+      <c r="K8" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="73"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65">
         <v>1</v>
       </c>
-      <c r="B9" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="64" t="s">
+      <c r="B9" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="65">
+        <v>1</v>
+      </c>
+      <c r="G9" s="152">
+        <v>190000</v>
+      </c>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152">
+        <v>190000</v>
+      </c>
+      <c r="J9" s="151"/>
+      <c r="K9" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="151"/>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="65">
         <v>2</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="89"/>
-      <c r="M9" s="64"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="B10" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="65">
+        <v>1</v>
+      </c>
+      <c r="G10" s="87">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87">
+        <v>30000</v>
+      </c>
+      <c r="J10" s="86"/>
+      <c r="K10" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="151"/>
+      <c r="M10" s="65"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="69" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="69" t="s">
+      <c r="F12" s="84"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="M12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="66" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="66" t="s">
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="9"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="5"/>
       <c r="M14" s="9"/>
     </row>
@@ -2775,54 +2852,70 @@
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="5"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="66" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="66" t="s">
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="M17" s="82"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2831,32 +2924,40 @@
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I9:J9"/>
+  <mergeCells count="29">
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H17:K17"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="D2:K4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="1" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageMargins left="0.5" right="0.5" top="1" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2884,42 +2985,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="94" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="93" t="s">
@@ -2934,45 +3035,45 @@
       <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2981,8 +3082,8 @@
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2991,8 +3092,8 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3001,8 +3102,8 @@
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3011,8 +3112,8 @@
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3021,8 +3122,8 @@
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3031,8 +3132,8 @@
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3041,8 +3142,8 @@
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3051,8 +3152,8 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3060,40 +3161,40 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92" t="s">
+      <c r="D17" s="91"/>
+      <c r="E17" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92" t="s">
+      <c r="F17" s="91"/>
+      <c r="G17" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="92"/>
+      <c r="H17" s="91"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91" t="s">
+      <c r="D18" s="94"/>
+      <c r="E18" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91" t="s">
+      <c r="F18" s="94"/>
+      <c r="G18" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="91"/>
+      <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -3128,42 +3229,42 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="94" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="75" t="s">
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="75"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="75" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="75" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="75"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="93" t="s">
@@ -3178,45 +3279,45 @@
       <c r="H27" s="93"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83" t="s">
+      <c r="C28" s="77"/>
+      <c r="D28" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83" t="s">
+      <c r="G28" s="77"/>
+      <c r="H28" s="77" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="83"/>
+      <c r="H29" s="77"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3225,8 +3326,8 @@
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3235,8 +3336,8 @@
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3245,8 +3346,8 @@
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3255,8 +3356,8 @@
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3265,8 +3366,8 @@
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3275,8 +3376,8 @@
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3285,8 +3386,8 @@
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3295,8 +3396,8 @@
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3304,40 +3405,40 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92" t="s">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92" t="s">
+      <c r="D39" s="91"/>
+      <c r="E39" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92" t="s">
+      <c r="F39" s="91"/>
+      <c r="G39" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="92"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91" t="s">
+      <c r="B40" s="94"/>
+      <c r="C40" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91" t="s">
+      <c r="D40" s="94"/>
+      <c r="E40" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91" t="s">
+      <c r="F40" s="94"/>
+      <c r="G40" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="91"/>
+      <c r="H40" s="94"/>
     </row>
     <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -3351,48 +3452,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
@@ -3409,6 +3468,48 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.4" right="0.23" top="0.4" bottom="0.33" header="0.27" footer="0.23"/>
@@ -3438,8 +3539,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="98" t="s">
         <v>16</v>
       </c>
@@ -3450,8 +3551,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="101"/>
       <c r="D3" s="102"/>
       <c r="E3" s="103"/>
@@ -3460,8 +3561,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="104"/>
       <c r="D4" s="105"/>
       <c r="E4" s="106"/>
@@ -3782,78 +3883,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="120" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121" t="s">
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="123"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="121" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="123"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="28"/>
@@ -3945,58 +4046,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="112" t="s">
+      <c r="F21" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112" t="s">
+      <c r="G21" s="108"/>
+      <c r="H21" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="112" t="s">
+      <c r="I21" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="112" t="s">
+      <c r="J21" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="108" t="s">
+      <c r="L21" s="116" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="112"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="109"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="117"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -4041,12 +4142,12 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="95" t="s">
@@ -4114,74 +4215,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
     </row>
     <row r="33" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4189,22 +4290,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4221,6 +4306,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4253,62 +4354,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="94" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="121" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="123"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="121" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="123"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="121" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="123"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4322,12 +4423,12 @@
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
@@ -4357,10 +4458,10 @@
       <c r="I7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="126"/>
+      <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -4374,8 +4475,8 @@
       <c r="G8" s="45"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="133"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4389,8 +4490,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
@@ -4404,8 +4505,8 @@
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="135"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
@@ -4419,8 +4520,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
@@ -4434,8 +4535,8 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
@@ -4449,14 +4550,14 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="135"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="128"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4464,35 +4565,44 @@
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="137"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131" t="s">
+      <c r="F16" s="124"/>
+      <c r="G16" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131" t="s">
+      <c r="H16" s="124"/>
+      <c r="I16" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4504,15 +4614,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4552,48 +4653,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="77" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="121" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="123"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="121" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="123"/>
+      <c r="J3" s="115"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="121" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="123"/>
+      <c r="J4" s="115"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4639,11 +4740,11 @@
       <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
@@ -4653,174 +4754,174 @@
       <c r="G8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="142" t="s">
+      <c r="H8" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="139"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="140"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="139"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="139"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="140"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="139"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="139"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="139"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="139"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="139"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="140"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="139"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="140"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="139"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="140"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>11</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -4835,42 +4936,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70" t="s">
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -4880,9 +4981,9 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -4892,9 +4993,9 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -4904,9 +5005,9 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -4914,6 +5015,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -4921,38 +5054,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
